--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1669.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1669.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7303479396363554</v>
+        <v>3.615425109863281</v>
       </c>
       <c r="B1">
-        <v>3.254704415342065</v>
+        <v>2.410564184188843</v>
       </c>
       <c r="C1">
-        <v>2.600211208638268</v>
+        <v>1.797758102416992</v>
       </c>
       <c r="D1">
-        <v>2.41238818424534</v>
+        <v>1.688449263572693</v>
       </c>
       <c r="E1">
-        <v>2.097278619425685</v>
+        <v>1.770780920982361</v>
       </c>
     </row>
   </sheetData>
